--- a/biology/Médecine/1909_en_santé_et_médecine/1909_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1909_en_santé_et_médecine/1909_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1909_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1909_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1909 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1909_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1909_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,21 +523,23 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>23 avril : Carlos Chagas découvre la trypanosomiase américaine et, cas unique dans l'histoire de la médecine, donne à cette occasion la description complète d'une maladie infectieuse nouvelle.
-10 juin : les usines de Hoechst déposent le brevet du Salvarsan, médicament antisyphilitique de synthèse souvent considéré comme le premier agent chimiothérapeutique moderne[1].
-24 juillet : fondation du Moynihan Chirurgical Club, premier du genre en Grande-Bretagne[2].
-18 septembre : considéré à ce titre comme une des pionniers de la chirurgie ambulatoire, James H. Nicoll publie les interventions qu'il a pratiquées en hospitalisation de jour[3]'[4].
-4-9 octobre : le 22e congrès de l'Association française de chirurgie se tient à  Paris[5].
-24 novembre 1909 : en France, la loi Engerand institue un congé de maternité d'une durée de huit semaines, sans rémunération mais sans rupture du contrat de travail[6].
-25 novembre : l'écrivain Georges Duhamel soutient sa thèse de médecine sur l'acide thymique[7].
+10 juin : les usines de Hoechst déposent le brevet du Salvarsan, médicament antisyphilitique de synthèse souvent considéré comme le premier agent chimiothérapeutique moderne.
+24 juillet : fondation du Moynihan Chirurgical Club, premier du genre en Grande-Bretagne.
+18 septembre : considéré à ce titre comme une des pionniers de la chirurgie ambulatoire, James H. Nicoll publie les interventions qu'il a pratiquées en hospitalisation de jour'.
+4-9 octobre : le 22e congrès de l'Association française de chirurgie se tient à  Paris.
+24 novembre 1909 : en France, la loi Engerand institue un congé de maternité d'une durée de huit semaines, sans rémunération mais sans rupture du contrat de travail.
+25 novembre : l'écrivain Georges Duhamel soutient sa thèse de médecine sur l'acide thymique.
 Sans date
-Armand Ruffer fonde la paléopathologie en découvrant l'agent de la bilharziose dans les reins de momies égyptiennes [8].
+Armand Ruffer fonde la paléopathologie en découvrant l'agent de la bilharziose dans les reins de momies égyptiennes .
 Jean De Meyer, clinicien et physiologiste belge, nomme « insuline » l'hormone peptidique hypoglycémiante sécrétée par le pancréas.
-Charles Nicolle découvre que le typhus exanthématique est transmis par le pou[9].
-Sortie de Un chirurgien distrait, film comique réalisé par Émile Cohl[10].
-Le médecin autrichien Karl Landsteiner et ses assistants Erwin Popper et Constantin Levaditi découvrent le poliovirus[11].</t>
+Charles Nicolle découvre que le typhus exanthématique est transmis par le pou.
+Sortie de Un chirurgien distrait, film comique réalisé par Émile Cohl.
+Le médecin autrichien Karl Landsteiner et ses assistants Erwin Popper et Constantin Levaditi découvrent le poliovirus.</t>
         </is>
       </c>
     </row>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1909_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1909_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,9 +567,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix Nobel de médecine : Theodor Kocher, « pour ses travaux sur la physiologie, la pathologie et la chirurgie de la glande thyroïde[12] ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix Nobel de médecine : Theodor Kocher, « pour ses travaux sur la physiologie, la pathologie et la chirurgie de la glande thyroïde ».
 Prix Montyon : Charles Nicolle.</t>
         </is>
       </c>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1909_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1909_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,22 +600,24 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2 janvier : Tawhida Ben Cheikh (morte en 2010), pédiatre et gynécologue tunisienne.
-Février : Antoine Beau (mort en 1996), médecin français[13].
-2 mars : Paul Bernard (mort en 1995), psychiatre français[14].
+Février : Antoine Beau (mort en 1996), médecin français.
+2 mars : Paul Bernard (mort en 1995), psychiatre français.
 19 mars : Jean Brachet (mort en 1988), embryologiste, biologiste et biochimiste belge.
-22 avril : Rita Levi-Montalcini (morte en 2012), neurologue italienne, lauréate en 1986, avec Stanley Cohen, du prix Nobel de médecine, « pour leurs découvertes sur les facteurs de croissance[15] ».
+22 avril : Rita Levi-Montalcini (morte en 2012), neurologue italienne, lauréate en 1986, avec Stanley Cohen, du prix Nobel de médecine, « pour leurs découvertes sur les facteurs de croissance ».
 11 mai : Joseph Kerharo, pharmacien militaire français, spécialiste de la flore médicinale et des pharmacopées traditionnelles africaines, mort le 11 janvier 1986.
 23 mai : René Truhaut (mort en 1994), toxicologue français.
 7 juin : Virginia Apgar (morte en 1974), anesthésiste américaine.
 23 juin : René Couteaux (mort en 1999), neurobiologiste français, spécialiste de la cytologie du neurone et l'un des fondateurs de l'école française de neuroanatomie.
-24 juin : Jean Bouche (mort en 1996), chirurgien français[16],[17].
+24 juin : Jean Bouche (mort en 1996), chirurgien français,.
 15 juillet : Jean Hamburger (mort en 1992), médecin et essayiste français.
 5 septembre : Yusuf Dadoo (mort en 1983), médecin et homme politique sud-africain, membre du Parti communiste sud-africain.
-22 novembre : Pierre de Graciansky (mort en 1999), dermatologue français[18].
-11 décembre : Paul Bregeat (mort en 1989), ophtalmologiste français[19].</t>
+22 novembre : Pierre de Graciansky (mort en 1999), dermatologue français.
+11 décembre : Paul Bregeat (mort en 1989), ophtalmologiste français.</t>
         </is>
       </c>
     </row>
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1909_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1909_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,12 +645,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>3 janvier : Douglas Argyll Robertson (né en 1837), médecin écossais.
-10 janvier : Alfred Heurtaux (né en 1832), chirurgien français[20].
+10 janvier : Alfred Heurtaux (né en 1832), chirurgien français.
 26 février : Hermann Ebbinghaus (né en 1850), physiologiste allemand.
-15 mai : Ernest Besnier (né en 1831), dermatologue français, inventeur de la biopsie[21].
+15 mai : Ernest Besnier (né en 1831), dermatologue français, inventeur de la biopsie.
 20 mai : Theodor Engelmann (né en 1843), physiologiste allemand.
 28 mai : Désiré Bourneville (né en 1840), aliéniste et neurologue français.
 13 août : Otto Bollinger (en) (né en 1843), pathologiste allemand.
